--- a/data/trans_orig/iP30KDA8_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA8_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D801D2-1BFA-40A8-B0EF-5724FCD84B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45059E5E-D36C-4150-8AE0-EF6434BB7650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D4CCF50-AC5B-46D3-9DA4-A5F2F5C7C4E2}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{7ADBAB5D-20B0-42C6-A49F-754F7D87DFD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si toman pasta o arroz casi a diario en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,220 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB0EF1-CCAE-4071-92C3-D072D59AAB76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D02D92-3EB6-465E-9EF7-4BA7AAF0E1D5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -880,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>13430</v>
+        <v>19365</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -895,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>19662</v>
+        <v>13561</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -913,7 +919,7 @@
         <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>33091</v>
+        <v>32926</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -931,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>29714</v>
+        <v>27130</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -946,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I5" s="7">
-        <v>26631</v>
+        <v>31724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -964,7 +970,7 @@
         <v>106</v>
       </c>
       <c r="N5" s="7">
-        <v>56345</v>
+        <v>58853</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -982,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1015,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1035,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>91093</v>
+        <v>74221</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1050,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="I7" s="7">
-        <v>75700</v>
+        <v>92944</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1068,7 +1074,7 @@
         <v>249</v>
       </c>
       <c r="N7" s="7">
-        <v>166794</v>
+        <v>167165</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1089,7 +1095,7 @@
         <v>142</v>
       </c>
       <c r="D8" s="7">
-        <v>83624</v>
+        <v>85078</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1098,37 +1104,37 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>142</v>
       </c>
       <c r="I8" s="7">
-        <v>83065</v>
+        <v>89015</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>284</v>
       </c>
       <c r="N8" s="7">
-        <v>166688</v>
+        <v>174094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1137,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1170,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1184,55 +1190,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>106</v>
+      </c>
+      <c r="D10" s="7">
+        <v>78922</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>97</v>
       </c>
-      <c r="D10" s="7">
-        <v>85541</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>106</v>
-      </c>
       <c r="I10" s="7">
-        <v>81988</v>
+        <v>87384</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>203</v>
       </c>
       <c r="N10" s="7">
-        <v>167529</v>
+        <v>166306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>127</v>
+      </c>
+      <c r="D11" s="7">
+        <v>94150</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>146</v>
       </c>
-      <c r="D11" s="7">
-        <v>116937</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7">
-        <v>127</v>
-      </c>
       <c r="I11" s="7">
-        <v>94125</v>
+        <v>125106</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>273</v>
       </c>
       <c r="N11" s="7">
-        <v>211062</v>
+        <v>219257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1325,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1339,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>149</v>
+      </c>
+      <c r="D13" s="7">
+        <v>109580</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
         <v>163</v>
       </c>
-      <c r="D13" s="7">
-        <v>137040</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>149</v>
-      </c>
       <c r="I13" s="7">
-        <v>117756</v>
+        <v>139887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
       </c>
       <c r="N13" s="7">
-        <v>254796</v>
+        <v>249467</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>192</v>
+      </c>
+      <c r="D14" s="7">
+        <v>164687</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>178</v>
       </c>
-      <c r="D14" s="7">
-        <v>151954</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="7">
-        <v>192</v>
-      </c>
       <c r="I14" s="7">
-        <v>141682</v>
+        <v>165112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>370</v>
       </c>
       <c r="N14" s="7">
-        <v>293637</v>
+        <v>329799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1465,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1480,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1500,49 +1506,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>406</v>
+      </c>
+      <c r="D16" s="7">
+        <v>282089</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>416</v>
       </c>
-      <c r="D16" s="7">
-        <v>327104</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>406</v>
-      </c>
       <c r="I16" s="7">
-        <v>295106</v>
+        <v>333776</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>822</v>
       </c>
       <c r="N16" s="7">
-        <v>622210</v>
+        <v>615865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>509</v>
+      </c>
+      <c r="D17" s="7">
+        <v>371045</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>524</v>
       </c>
-      <c r="D17" s="7">
-        <v>382229</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7">
-        <v>509</v>
-      </c>
       <c r="I17" s="7">
-        <v>345503</v>
+        <v>410957</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1033</v>
       </c>
       <c r="N17" s="7">
-        <v>727732</v>
+        <v>782002</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1635,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1649,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
